--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.2275195370787</v>
+        <v>37.05582933333334</v>
       </c>
       <c r="H2">
-        <v>26.2275195370787</v>
+        <v>111.167488</v>
       </c>
       <c r="I2">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="J2">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N2">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q2">
-        <v>810.1036276873743</v>
+        <v>1172.185381789013</v>
       </c>
       <c r="R2">
-        <v>810.1036276873743</v>
+        <v>10549.66843610112</v>
       </c>
       <c r="S2">
-        <v>0.4704842339402051</v>
+        <v>0.4531346620072664</v>
       </c>
       <c r="T2">
-        <v>0.4704842339402051</v>
+        <v>0.4531346620072664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.2275195370787</v>
+        <v>37.05582933333334</v>
       </c>
       <c r="H3">
-        <v>26.2275195370787</v>
+        <v>111.167488</v>
       </c>
       <c r="I3">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="J3">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N3">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q3">
-        <v>223.5631702512157</v>
+        <v>319.5054891053511</v>
       </c>
       <c r="R3">
-        <v>223.5631702512157</v>
+        <v>2875.54940194816</v>
       </c>
       <c r="S3">
-        <v>0.1298388790001541</v>
+        <v>0.1235120434570297</v>
       </c>
       <c r="T3">
-        <v>0.1298388790001541</v>
+        <v>0.1235120434570297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.2275195370787</v>
+        <v>37.05582933333334</v>
       </c>
       <c r="H4">
-        <v>26.2275195370787</v>
+        <v>111.167488</v>
       </c>
       <c r="I4">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="J4">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N4">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q4">
-        <v>442.599732270019</v>
+        <v>693.2686299502365</v>
       </c>
       <c r="R4">
-        <v>442.599732270019</v>
+        <v>6239.417669552129</v>
       </c>
       <c r="S4">
-        <v>0.2570488377809855</v>
+        <v>0.267998604310598</v>
       </c>
       <c r="T4">
-        <v>0.2570488377809855</v>
+        <v>0.2679986043105981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.2275195370787</v>
+        <v>37.05582933333334</v>
       </c>
       <c r="H5">
-        <v>26.2275195370787</v>
+        <v>111.167488</v>
       </c>
       <c r="I5">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="J5">
-        <v>0.9014905611323489</v>
+        <v>0.9062076988734117</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N5">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q5">
-        <v>75.96566210765469</v>
+        <v>159.2518485556338</v>
       </c>
       <c r="R5">
-        <v>75.96566210765469</v>
+        <v>1433.266637000704</v>
       </c>
       <c r="S5">
-        <v>0.0441186104110041</v>
+        <v>0.06156238909851747</v>
       </c>
       <c r="T5">
-        <v>0.0441186104110041</v>
+        <v>0.06156238909851747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.66375168783597</v>
+        <v>1.679068333333333</v>
       </c>
       <c r="H6">
-        <v>1.66375168783597</v>
+        <v>5.037205</v>
       </c>
       <c r="I6">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="J6">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N6">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q6">
-        <v>51.38920117784934</v>
+        <v>53.11389303025833</v>
       </c>
       <c r="R6">
-        <v>51.38920117784934</v>
+        <v>478.025037272325</v>
       </c>
       <c r="S6">
-        <v>0.02984532857602502</v>
+        <v>0.02053237170508263</v>
       </c>
       <c r="T6">
-        <v>0.02984532857602502</v>
+        <v>0.02053237170508263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.66375168783597</v>
+        <v>1.679068333333333</v>
       </c>
       <c r="H7">
-        <v>1.66375168783597</v>
+        <v>5.037205</v>
       </c>
       <c r="I7">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="J7">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N7">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q7">
-        <v>14.18180630149098</v>
+        <v>14.47738611534444</v>
       </c>
       <c r="R7">
-        <v>14.18180630149098</v>
+        <v>130.2964750381</v>
       </c>
       <c r="S7">
-        <v>0.008236373774418226</v>
+        <v>0.005596559696140363</v>
       </c>
       <c r="T7">
-        <v>0.008236373774418226</v>
+        <v>0.005596559696140363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.66375168783597</v>
+        <v>1.679068333333333</v>
       </c>
       <c r="H8">
-        <v>1.66375168783597</v>
+        <v>5.037205</v>
       </c>
       <c r="I8">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="J8">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N8">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q8">
-        <v>28.07646565886468</v>
+        <v>31.41328703162278</v>
       </c>
       <c r="R8">
-        <v>28.07646565886468</v>
+        <v>282.7195832846051</v>
       </c>
       <c r="S8">
-        <v>0.01630598109401022</v>
+        <v>0.01214351366495181</v>
       </c>
       <c r="T8">
-        <v>0.01630598109401022</v>
+        <v>0.01214351366495181</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.66375168783597</v>
+        <v>1.679068333333333</v>
       </c>
       <c r="H9">
-        <v>1.66375168783597</v>
+        <v>5.037205</v>
       </c>
       <c r="I9">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="J9">
-        <v>0.05718636261167379</v>
+        <v>0.04106195106076017</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N9">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O9">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P9">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q9">
-        <v>4.818907802947535</v>
+        <v>7.215996531321111</v>
       </c>
       <c r="R9">
-        <v>4.818907802947535</v>
+        <v>64.94396878189001</v>
       </c>
       <c r="S9">
-        <v>0.002798679167220304</v>
+        <v>0.002789505994585375</v>
       </c>
       <c r="T9">
-        <v>0.002798679167220304</v>
+        <v>0.002789505994585375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.20223309767602</v>
+        <v>0.08951333333333333</v>
       </c>
       <c r="H10">
-        <v>1.20223309767602</v>
+        <v>0.26854</v>
       </c>
       <c r="I10">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="J10">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N10">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O10">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P10">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q10">
-        <v>37.1340260513882</v>
+        <v>2.831571245233333</v>
       </c>
       <c r="R10">
-        <v>37.1340260513882</v>
+        <v>25.4841412071</v>
       </c>
       <c r="S10">
-        <v>0.02156634435742237</v>
+        <v>0.001094607644057149</v>
       </c>
       <c r="T10">
-        <v>0.02156634435742237</v>
+        <v>0.001094607644057148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.20223309767602</v>
+        <v>0.08951333333333333</v>
       </c>
       <c r="H11">
-        <v>1.20223309767602</v>
+        <v>0.26854</v>
       </c>
       <c r="I11">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="J11">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N11">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P11">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q11">
-        <v>10.24782546887114</v>
+        <v>0.7718084269777777</v>
       </c>
       <c r="R11">
-        <v>10.24782546887114</v>
+        <v>6.9462758428</v>
       </c>
       <c r="S11">
-        <v>0.005951634026178433</v>
+        <v>0.0002983599319069867</v>
       </c>
       <c r="T11">
-        <v>0.005951634026178433</v>
+        <v>0.0002983599319069867</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.20223309767602</v>
+        <v>0.08951333333333333</v>
       </c>
       <c r="H12">
-        <v>1.20223309767602</v>
+        <v>0.26854</v>
       </c>
       <c r="I12">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="J12">
-        <v>0.0413230762559773</v>
+        <v>0.002189066424308031</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N12">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O12">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P12">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q12">
-        <v>20.28815749828357</v>
+        <v>1.674683499971111</v>
       </c>
       <c r="R12">
-        <v>20.28815749828357</v>
+        <v>15.07215149974</v>
       </c>
       <c r="S12">
-        <v>0.01178276199785365</v>
+        <v>0.0006473866280181486</v>
       </c>
       <c r="T12">
-        <v>0.01178276199785365</v>
+        <v>0.0006473866280181486</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08951333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.26854</v>
+      </c>
+      <c r="I13">
+        <v>0.002189066424308031</v>
+      </c>
+      <c r="J13">
+        <v>0.002189066424308031</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.297619333333333</v>
+      </c>
+      <c r="N13">
+        <v>12.892858</v>
+      </c>
+      <c r="O13">
+        <v>0.06793408307505136</v>
+      </c>
+      <c r="P13">
+        <v>0.06793408307505136</v>
+      </c>
+      <c r="Q13">
+        <v>0.3846942319244445</v>
+      </c>
+      <c r="R13">
+        <v>3.46224808732</v>
+      </c>
+      <c r="S13">
+        <v>0.0001487122203257474</v>
+      </c>
+      <c r="T13">
+        <v>0.0001487122203257474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.066688666666666</v>
+      </c>
+      <c r="H14">
+        <v>6.200066</v>
+      </c>
+      <c r="I14">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="J14">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.632955</v>
+      </c>
+      <c r="N14">
+        <v>94.898865</v>
+      </c>
+      <c r="O14">
+        <v>0.5000340016649593</v>
+      </c>
+      <c r="P14">
+        <v>0.5000340016649593</v>
+      </c>
+      <c r="Q14">
+        <v>65.37546959167666</v>
+      </c>
+      <c r="R14">
+        <v>588.3792263250899</v>
+      </c>
+      <c r="S14">
+        <v>0.02527236030855302</v>
+      </c>
+      <c r="T14">
+        <v>0.02527236030855302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.066688666666666</v>
+      </c>
+      <c r="H15">
+        <v>6.200066</v>
+      </c>
+      <c r="I15">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="J15">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.622273333333332</v>
+      </c>
+      <c r="N15">
+        <v>25.86682</v>
+      </c>
+      <c r="O15">
+        <v>0.1362955132808722</v>
+      </c>
+      <c r="P15">
+        <v>0.1362955132808722</v>
+      </c>
+      <c r="Q15">
+        <v>17.81955457890222</v>
+      </c>
+      <c r="R15">
+        <v>160.37599121012</v>
+      </c>
+      <c r="S15">
+        <v>0.006888550195795127</v>
+      </c>
+      <c r="T15">
+        <v>0.006888550195795127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.20223309767602</v>
-      </c>
-      <c r="H13">
-        <v>1.20223309767602</v>
-      </c>
-      <c r="I13">
-        <v>0.0413230762559773</v>
-      </c>
-      <c r="J13">
-        <v>0.0413230762559773</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.89641046688611</v>
-      </c>
-      <c r="N13">
-        <v>2.89641046688611</v>
-      </c>
-      <c r="O13">
-        <v>0.04893962545274725</v>
-      </c>
-      <c r="P13">
-        <v>0.04893962545274725</v>
-      </c>
-      <c r="Q13">
-        <v>3.482160527745735</v>
-      </c>
-      <c r="R13">
-        <v>3.482160527745735</v>
-      </c>
-      <c r="S13">
-        <v>0.002022335874522842</v>
-      </c>
-      <c r="T13">
-        <v>0.002022335874522842</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.066688666666666</v>
+      </c>
+      <c r="H16">
+        <v>6.200066</v>
+      </c>
+      <c r="I16">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="J16">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.70876033333333</v>
+      </c>
+      <c r="N16">
+        <v>56.12628100000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2957364019791172</v>
+      </c>
+      <c r="P16">
+        <v>0.2957364019791172</v>
+      </c>
+      <c r="Q16">
+        <v>38.66518294828288</v>
+      </c>
+      <c r="R16">
+        <v>347.986646534546</v>
+      </c>
+      <c r="S16">
+        <v>0.01494689737554915</v>
+      </c>
+      <c r="T16">
+        <v>0.01494689737554916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.066688666666666</v>
+      </c>
+      <c r="H17">
+        <v>6.200066</v>
+      </c>
+      <c r="I17">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="J17">
+        <v>0.05054128364152006</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.297619333333333</v>
+      </c>
+      <c r="N17">
+        <v>12.892858</v>
+      </c>
+      <c r="O17">
+        <v>0.06793408307505136</v>
+      </c>
+      <c r="P17">
+        <v>0.06793408307505136</v>
+      </c>
+      <c r="Q17">
+        <v>8.881841169847554</v>
+      </c>
+      <c r="R17">
+        <v>79.936570528628</v>
+      </c>
+      <c r="S17">
+        <v>0.003433475761622758</v>
+      </c>
+      <c r="T17">
+        <v>0.003433475761622758</v>
       </c>
     </row>
   </sheetData>
